--- a/templates/Unicorn_Valves_Pricing_Data.xlsx
+++ b/templates/Unicorn_Valves_Pricing_Data.xlsx
@@ -6,6 +6,14 @@
     <sheet name="Materials" sheetId="1" r:id="rId1"/>
     <sheet name="Series" sheetId="2" r:id="rId2"/>
     <sheet name="Body Weights" sheetId="3" r:id="rId3"/>
+    <sheet name="Bonnet Weights" sheetId="4" r:id="rId4"/>
+    <sheet name="Plug Weights" sheetId="5" r:id="rId5"/>
+    <sheet name="Seat Weights" sheetId="6" r:id="rId6"/>
+    <sheet name="Cage Weights" sheetId="7" r:id="rId7"/>
+    <sheet name="Seal Ring Prices" sheetId="8" r:id="rId8"/>
+    <sheet name="Stem Fixed Prices" sheetId="9" r:id="rId9"/>
+    <sheet name="Actuator Models" sheetId="10" r:id="rId10"/>
+    <sheet name="Handwheel Prices" sheetId="11" r:id="rId11"/>
   </sheets>
 </workbook>
 </file>
@@ -399,7 +407,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -462,13 +470,13 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>SS316 Plug</v>
+        <v>Alloy Steel A217-WC6</v>
       </c>
       <c r="B5" t="str">
-        <v>550</v>
+        <v>320</v>
       </c>
       <c r="C5" t="str">
-        <v>Plug</v>
+        <v>BodyBonnet</v>
       </c>
       <c r="D5" t="str">
         <v>TRUE</v>
@@ -476,13 +484,13 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>SS316 Seat</v>
+        <v>Chrome Moly A217-WC9</v>
       </c>
       <c r="B6" t="str">
-        <v>550</v>
+        <v>380</v>
       </c>
       <c r="C6" t="str">
-        <v>Seat</v>
+        <v>BodyBonnet</v>
       </c>
       <c r="D6" t="str">
         <v>TRUE</v>
@@ -490,13 +498,13 @@
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>SS316 Stem</v>
+        <v>SS304 Plug</v>
       </c>
       <c r="B7" t="str">
-        <v>550</v>
+        <v>450</v>
       </c>
       <c r="C7" t="str">
-        <v>Stem</v>
+        <v>Plug</v>
       </c>
       <c r="D7" t="str">
         <v>TRUE</v>
@@ -504,28 +512,482 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>SS316 Cage</v>
+        <v>SS316 Plug</v>
       </c>
       <c r="B8" t="str">
         <v>550</v>
       </c>
       <c r="C8" t="str">
+        <v>Plug</v>
+      </c>
+      <c r="D8" t="str">
+        <v>TRUE</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>Stellite Plug</v>
+      </c>
+      <c r="B9" t="str">
+        <v>1200</v>
+      </c>
+      <c r="C9" t="str">
+        <v>Plug</v>
+      </c>
+      <c r="D9" t="str">
+        <v>TRUE</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>SS304 Seat</v>
+      </c>
+      <c r="B10" t="str">
+        <v>450</v>
+      </c>
+      <c r="C10" t="str">
+        <v>Seat</v>
+      </c>
+      <c r="D10" t="str">
+        <v>TRUE</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>SS316 Seat</v>
+      </c>
+      <c r="B11" t="str">
+        <v>550</v>
+      </c>
+      <c r="C11" t="str">
+        <v>Seat</v>
+      </c>
+      <c r="D11" t="str">
+        <v>TRUE</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>Stellite Seat</v>
+      </c>
+      <c r="B12" t="str">
+        <v>1200</v>
+      </c>
+      <c r="C12" t="str">
+        <v>Seat</v>
+      </c>
+      <c r="D12" t="str">
+        <v>TRUE</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>SS304 Stem</v>
+      </c>
+      <c r="B13" t="str">
+        <v>450</v>
+      </c>
+      <c r="C13" t="str">
+        <v>Stem</v>
+      </c>
+      <c r="D13" t="str">
+        <v>TRUE</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>SS316 Stem</v>
+      </c>
+      <c r="B14" t="str">
+        <v>550</v>
+      </c>
+      <c r="C14" t="str">
+        <v>Stem</v>
+      </c>
+      <c r="D14" t="str">
+        <v>TRUE</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>SS410 Stem</v>
+      </c>
+      <c r="B15" t="str">
+        <v>380</v>
+      </c>
+      <c r="C15" t="str">
+        <v>Stem</v>
+      </c>
+      <c r="D15" t="str">
+        <v>TRUE</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>SS304 Cage</v>
+      </c>
+      <c r="B16" t="str">
+        <v>450</v>
+      </c>
+      <c r="C16" t="str">
         <v>Cage</v>
       </c>
-      <c r="D8" t="str">
+      <c r="D16" t="str">
+        <v>TRUE</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>SS316 Cage</v>
+      </c>
+      <c r="B17" t="str">
+        <v>550</v>
+      </c>
+      <c r="C17" t="str">
+        <v>Cage</v>
+      </c>
+      <c r="D17" t="str">
         <v>TRUE</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D8"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D17"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>Type</v>
+      </c>
+      <c r="B1" t="str">
+        <v>Series</v>
+      </c>
+      <c r="C1" t="str">
+        <v>Model</v>
+      </c>
+      <c r="D1" t="str">
+        <v>Standard/Special</v>
+      </c>
+      <c r="E1" t="str">
+        <v>Fixed Price</v>
+      </c>
+      <c r="F1" t="str">
+        <v>Active</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>Pneumatic</v>
+      </c>
+      <c r="B2" t="str">
+        <v>Series A</v>
+      </c>
+      <c r="C2" t="str">
+        <v>PA-50</v>
+      </c>
+      <c r="D2" t="str">
+        <v>standard</v>
+      </c>
+      <c r="E2" t="str">
+        <v>12000</v>
+      </c>
+      <c r="F2" t="str">
+        <v>TRUE</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>Pneumatic</v>
+      </c>
+      <c r="B3" t="str">
+        <v>Series A</v>
+      </c>
+      <c r="C3" t="str">
+        <v>PA-100</v>
+      </c>
+      <c r="D3" t="str">
+        <v>standard</v>
+      </c>
+      <c r="E3" t="str">
+        <v>15000</v>
+      </c>
+      <c r="F3" t="str">
+        <v>TRUE</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>Pneumatic</v>
+      </c>
+      <c r="B4" t="str">
+        <v>Series A</v>
+      </c>
+      <c r="C4" t="str">
+        <v>PA-200</v>
+      </c>
+      <c r="D4" t="str">
+        <v>standard</v>
+      </c>
+      <c r="E4" t="str">
+        <v>18000</v>
+      </c>
+      <c r="F4" t="str">
+        <v>TRUE</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>Pneumatic</v>
+      </c>
+      <c r="B5" t="str">
+        <v>Series B</v>
+      </c>
+      <c r="C5" t="str">
+        <v>PB-100</v>
+      </c>
+      <c r="D5" t="str">
+        <v>standard</v>
+      </c>
+      <c r="E5" t="str">
+        <v>16000</v>
+      </c>
+      <c r="F5" t="str">
+        <v>TRUE</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>Electric</v>
+      </c>
+      <c r="B6" t="str">
+        <v>Series E</v>
+      </c>
+      <c r="C6" t="str">
+        <v>EL-100</v>
+      </c>
+      <c r="D6" t="str">
+        <v>standard</v>
+      </c>
+      <c r="E6" t="str">
+        <v>25000</v>
+      </c>
+      <c r="F6" t="str">
+        <v>TRUE</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>Electric</v>
+      </c>
+      <c r="B7" t="str">
+        <v>Series E</v>
+      </c>
+      <c r="C7" t="str">
+        <v>EL-200</v>
+      </c>
+      <c r="D7" t="str">
+        <v>standard</v>
+      </c>
+      <c r="E7" t="str">
+        <v>30000</v>
+      </c>
+      <c r="F7" t="str">
+        <v>TRUE</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>Manual</v>
+      </c>
+      <c r="B8" t="str">
+        <v>Series M</v>
+      </c>
+      <c r="C8" t="str">
+        <v>MN-50</v>
+      </c>
+      <c r="D8" t="str">
+        <v>standard</v>
+      </c>
+      <c r="E8" t="str">
+        <v>5000</v>
+      </c>
+      <c r="F8" t="str">
+        <v>TRUE</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>Manual</v>
+      </c>
+      <c r="B9" t="str">
+        <v>Series M</v>
+      </c>
+      <c r="C9" t="str">
+        <v>MN-100</v>
+      </c>
+      <c r="D9" t="str">
+        <v>standard</v>
+      </c>
+      <c r="E9" t="str">
+        <v>8000</v>
+      </c>
+      <c r="F9" t="str">
+        <v>TRUE</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:F9"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>Type</v>
+      </c>
+      <c r="B1" t="str">
+        <v>Series</v>
+      </c>
+      <c r="C1" t="str">
+        <v>Model</v>
+      </c>
+      <c r="D1" t="str">
+        <v>Standard/Special</v>
+      </c>
+      <c r="E1" t="str">
+        <v>Fixed Price</v>
+      </c>
+      <c r="F1" t="str">
+        <v>Active</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>Manual</v>
+      </c>
+      <c r="B2" t="str">
+        <v>Series H</v>
+      </c>
+      <c r="C2" t="str">
+        <v>HW-50</v>
+      </c>
+      <c r="D2" t="str">
+        <v>standard</v>
+      </c>
+      <c r="E2" t="str">
+        <v>1500</v>
+      </c>
+      <c r="F2" t="str">
+        <v>TRUE</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>Manual</v>
+      </c>
+      <c r="B3" t="str">
+        <v>Series H</v>
+      </c>
+      <c r="C3" t="str">
+        <v>HW-100</v>
+      </c>
+      <c r="D3" t="str">
+        <v>standard</v>
+      </c>
+      <c r="E3" t="str">
+        <v>2000</v>
+      </c>
+      <c r="F3" t="str">
+        <v>TRUE</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>Manual</v>
+      </c>
+      <c r="B4" t="str">
+        <v>Series H</v>
+      </c>
+      <c r="C4" t="str">
+        <v>HW-200</v>
+      </c>
+      <c r="D4" t="str">
+        <v>standard</v>
+      </c>
+      <c r="E4" t="str">
+        <v>2500</v>
+      </c>
+      <c r="F4" t="str">
+        <v>TRUE</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>Chainwheel</v>
+      </c>
+      <c r="B5" t="str">
+        <v>Series C</v>
+      </c>
+      <c r="C5" t="str">
+        <v>CW-100</v>
+      </c>
+      <c r="D5" t="str">
+        <v>standard</v>
+      </c>
+      <c r="E5" t="str">
+        <v>3000</v>
+      </c>
+      <c r="F5" t="str">
+        <v>TRUE</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>Chainwheel</v>
+      </c>
+      <c r="B6" t="str">
+        <v>Series C</v>
+      </c>
+      <c r="C6" t="str">
+        <v>CW-200</v>
+      </c>
+      <c r="D6" t="str">
+        <v>standard</v>
+      </c>
+      <c r="E6" t="str">
+        <v>4000</v>
+      </c>
+      <c r="F6" t="str">
+        <v>TRUE</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:F6"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -590,16 +1052,56 @@
         <v>TRUE</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>Angle Valve</v>
+      </c>
+      <c r="B4" t="str">
+        <v>93000</v>
+      </c>
+      <c r="C4" t="str">
+        <v>Angle Control Valve</v>
+      </c>
+      <c r="D4" t="str">
+        <v>TRUE</v>
+      </c>
+      <c r="E4" t="str">
+        <v>TRUE</v>
+      </c>
+      <c r="F4" t="str">
+        <v>TRUE</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>Ball Valve</v>
+      </c>
+      <c r="B5" t="str">
+        <v>94000</v>
+      </c>
+      <c r="C5" t="str">
+        <v>Trunnion Ball Valve</v>
+      </c>
+      <c r="D5" t="str">
+        <v>FALSE</v>
+      </c>
+      <c r="E5" t="str">
+        <v>FALSE</v>
+      </c>
+      <c r="F5" t="str">
+        <v>TRUE</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F5"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -649,16 +1151,16 @@
         <v>91000</v>
       </c>
       <c r="B3" t="str">
-        <v>1</v>
+        <v>1/2</v>
       </c>
       <c r="C3" t="str">
         <v>150</v>
       </c>
       <c r="D3" t="str">
-        <v>Flanged</v>
+        <v>Threaded</v>
       </c>
       <c r="E3" t="str">
-        <v>5.2</v>
+        <v>2.3</v>
       </c>
       <c r="F3" t="str">
         <v>TRUE</v>
@@ -669,24 +1171,1256 @@
         <v>91000</v>
       </c>
       <c r="B4" t="str">
-        <v>2</v>
+        <v>1/2</v>
       </c>
       <c r="C4" t="str">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="D4" t="str">
         <v>Flanged</v>
       </c>
       <c r="E4" t="str">
+        <v>3.2</v>
+      </c>
+      <c r="F4" t="str">
+        <v>TRUE</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>91000</v>
+      </c>
+      <c r="B5" t="str">
+        <v>3/4</v>
+      </c>
+      <c r="C5" t="str">
+        <v>150</v>
+      </c>
+      <c r="D5" t="str">
+        <v>Flanged</v>
+      </c>
+      <c r="E5" t="str">
+        <v>3.8</v>
+      </c>
+      <c r="F5" t="str">
+        <v>TRUE</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>91000</v>
+      </c>
+      <c r="B6" t="str">
+        <v>1</v>
+      </c>
+      <c r="C6" t="str">
+        <v>150</v>
+      </c>
+      <c r="D6" t="str">
+        <v>Flanged</v>
+      </c>
+      <c r="E6" t="str">
+        <v>5.2</v>
+      </c>
+      <c r="F6" t="str">
+        <v>TRUE</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>91000</v>
+      </c>
+      <c r="B7" t="str">
+        <v>1-1/2</v>
+      </c>
+      <c r="C7" t="str">
+        <v>150</v>
+      </c>
+      <c r="D7" t="str">
+        <v>Flanged</v>
+      </c>
+      <c r="E7" t="str">
+        <v>8.5</v>
+      </c>
+      <c r="F7" t="str">
+        <v>TRUE</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>91000</v>
+      </c>
+      <c r="B8" t="str">
+        <v>2</v>
+      </c>
+      <c r="C8" t="str">
+        <v>150</v>
+      </c>
+      <c r="D8" t="str">
+        <v>Flanged</v>
+      </c>
+      <c r="E8" t="str">
         <v>12.5</v>
       </c>
-      <c r="F4" t="str">
+      <c r="F8" t="str">
+        <v>TRUE</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>92000</v>
+      </c>
+      <c r="B9" t="str">
+        <v>1/2</v>
+      </c>
+      <c r="C9" t="str">
+        <v>150</v>
+      </c>
+      <c r="D9" t="str">
+        <v>Flanged</v>
+      </c>
+      <c r="E9" t="str">
+        <v>2.7</v>
+      </c>
+      <c r="F9" t="str">
+        <v>TRUE</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>92000</v>
+      </c>
+      <c r="B10" t="str">
+        <v>1</v>
+      </c>
+      <c r="C10" t="str">
+        <v>150</v>
+      </c>
+      <c r="D10" t="str">
+        <v>Flanged</v>
+      </c>
+      <c r="E10" t="str">
+        <v>5.5</v>
+      </c>
+      <c r="F10" t="str">
+        <v>TRUE</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>92000</v>
+      </c>
+      <c r="B11" t="str">
+        <v>2</v>
+      </c>
+      <c r="C11" t="str">
+        <v>150</v>
+      </c>
+      <c r="D11" t="str">
+        <v>Flanged</v>
+      </c>
+      <c r="E11" t="str">
+        <v>13.0</v>
+      </c>
+      <c r="F11" t="str">
         <v>TRUE</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F11"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>Series Number</v>
+      </c>
+      <c r="B1" t="str">
+        <v>Size</v>
+      </c>
+      <c r="C1" t="str">
+        <v>Rating</v>
+      </c>
+      <c r="D1" t="str">
+        <v>Bonnet Type</v>
+      </c>
+      <c r="E1" t="str">
+        <v>Weight (kg)</v>
+      </c>
+      <c r="F1" t="str">
+        <v>Active</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>91000</v>
+      </c>
+      <c r="B2" t="str">
+        <v>1/2</v>
+      </c>
+      <c r="C2" t="str">
+        <v>150</v>
+      </c>
+      <c r="D2" t="str">
+        <v>Standard</v>
+      </c>
+      <c r="E2" t="str">
+        <v>1.2</v>
+      </c>
+      <c r="F2" t="str">
+        <v>TRUE</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>91000</v>
+      </c>
+      <c r="B3" t="str">
+        <v>1/2</v>
+      </c>
+      <c r="C3" t="str">
+        <v>150</v>
+      </c>
+      <c r="D3" t="str">
+        <v>Extended</v>
+      </c>
+      <c r="E3" t="str">
+        <v>1.8</v>
+      </c>
+      <c r="F3" t="str">
+        <v>TRUE</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>91000</v>
+      </c>
+      <c r="B4" t="str">
+        <v>3/4</v>
+      </c>
+      <c r="C4" t="str">
+        <v>150</v>
+      </c>
+      <c r="D4" t="str">
+        <v>Standard</v>
+      </c>
+      <c r="E4" t="str">
+        <v>1.8</v>
+      </c>
+      <c r="F4" t="str">
+        <v>TRUE</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>91000</v>
+      </c>
+      <c r="B5" t="str">
+        <v>1</v>
+      </c>
+      <c r="C5" t="str">
+        <v>150</v>
+      </c>
+      <c r="D5" t="str">
+        <v>Standard</v>
+      </c>
+      <c r="E5" t="str">
+        <v>2.5</v>
+      </c>
+      <c r="F5" t="str">
+        <v>TRUE</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>91000</v>
+      </c>
+      <c r="B6" t="str">
+        <v>1-1/2</v>
+      </c>
+      <c r="C6" t="str">
+        <v>150</v>
+      </c>
+      <c r="D6" t="str">
+        <v>Standard</v>
+      </c>
+      <c r="E6" t="str">
+        <v>4.0</v>
+      </c>
+      <c r="F6" t="str">
+        <v>TRUE</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>91000</v>
+      </c>
+      <c r="B7" t="str">
+        <v>2</v>
+      </c>
+      <c r="C7" t="str">
+        <v>150</v>
+      </c>
+      <c r="D7" t="str">
+        <v>Standard</v>
+      </c>
+      <c r="E7" t="str">
+        <v>5.5</v>
+      </c>
+      <c r="F7" t="str">
+        <v>TRUE</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>92000</v>
+      </c>
+      <c r="B8" t="str">
+        <v>1/2</v>
+      </c>
+      <c r="C8" t="str">
+        <v>150</v>
+      </c>
+      <c r="D8" t="str">
+        <v>Standard</v>
+      </c>
+      <c r="E8" t="str">
+        <v>1.4</v>
+      </c>
+      <c r="F8" t="str">
+        <v>TRUE</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>92000</v>
+      </c>
+      <c r="B9" t="str">
+        <v>1</v>
+      </c>
+      <c r="C9" t="str">
+        <v>150</v>
+      </c>
+      <c r="D9" t="str">
+        <v>Standard</v>
+      </c>
+      <c r="E9" t="str">
+        <v>2.8</v>
+      </c>
+      <c r="F9" t="str">
+        <v>TRUE</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>92000</v>
+      </c>
+      <c r="B10" t="str">
+        <v>2</v>
+      </c>
+      <c r="C10" t="str">
+        <v>150</v>
+      </c>
+      <c r="D10" t="str">
+        <v>Standard</v>
+      </c>
+      <c r="E10" t="str">
+        <v>5.8</v>
+      </c>
+      <c r="F10" t="str">
+        <v>TRUE</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:F10"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>Series Number</v>
+      </c>
+      <c r="B1" t="str">
+        <v>Size</v>
+      </c>
+      <c r="C1" t="str">
+        <v>Rating</v>
+      </c>
+      <c r="D1" t="str">
+        <v>Weight (kg)</v>
+      </c>
+      <c r="E1" t="str">
+        <v>Active</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>91000</v>
+      </c>
+      <c r="B2" t="str">
+        <v>1/2</v>
+      </c>
+      <c r="C2" t="str">
+        <v>150</v>
+      </c>
+      <c r="D2" t="str">
+        <v>0.4</v>
+      </c>
+      <c r="E2" t="str">
+        <v>TRUE</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>91000</v>
+      </c>
+      <c r="B3" t="str">
+        <v>3/4</v>
+      </c>
+      <c r="C3" t="str">
+        <v>150</v>
+      </c>
+      <c r="D3" t="str">
+        <v>0.6</v>
+      </c>
+      <c r="E3" t="str">
+        <v>TRUE</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>91000</v>
+      </c>
+      <c r="B4" t="str">
+        <v>1</v>
+      </c>
+      <c r="C4" t="str">
+        <v>150</v>
+      </c>
+      <c r="D4" t="str">
+        <v>0.8</v>
+      </c>
+      <c r="E4" t="str">
+        <v>TRUE</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>91000</v>
+      </c>
+      <c r="B5" t="str">
+        <v>1-1/2</v>
+      </c>
+      <c r="C5" t="str">
+        <v>150</v>
+      </c>
+      <c r="D5" t="str">
+        <v>1.5</v>
+      </c>
+      <c r="E5" t="str">
+        <v>TRUE</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>91000</v>
+      </c>
+      <c r="B6" t="str">
+        <v>2</v>
+      </c>
+      <c r="C6" t="str">
+        <v>150</v>
+      </c>
+      <c r="D6" t="str">
+        <v>2.2</v>
+      </c>
+      <c r="E6" t="str">
+        <v>TRUE</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>92000</v>
+      </c>
+      <c r="B7" t="str">
+        <v>1/2</v>
+      </c>
+      <c r="C7" t="str">
+        <v>150</v>
+      </c>
+      <c r="D7" t="str">
+        <v>0.45</v>
+      </c>
+      <c r="E7" t="str">
+        <v>TRUE</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>92000</v>
+      </c>
+      <c r="B8" t="str">
+        <v>1</v>
+      </c>
+      <c r="C8" t="str">
+        <v>150</v>
+      </c>
+      <c r="D8" t="str">
+        <v>0.85</v>
+      </c>
+      <c r="E8" t="str">
+        <v>TRUE</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>92000</v>
+      </c>
+      <c r="B9" t="str">
+        <v>2</v>
+      </c>
+      <c r="C9" t="str">
+        <v>150</v>
+      </c>
+      <c r="D9" t="str">
+        <v>2.3</v>
+      </c>
+      <c r="E9" t="str">
+        <v>TRUE</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:E9"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>Series Number</v>
+      </c>
+      <c r="B1" t="str">
+        <v>Size</v>
+      </c>
+      <c r="C1" t="str">
+        <v>Rating</v>
+      </c>
+      <c r="D1" t="str">
+        <v>Weight (kg)</v>
+      </c>
+      <c r="E1" t="str">
+        <v>Active</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>91000</v>
+      </c>
+      <c r="B2" t="str">
+        <v>1/2</v>
+      </c>
+      <c r="C2" t="str">
+        <v>150</v>
+      </c>
+      <c r="D2" t="str">
+        <v>0.3</v>
+      </c>
+      <c r="E2" t="str">
+        <v>TRUE</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>91000</v>
+      </c>
+      <c r="B3" t="str">
+        <v>3/4</v>
+      </c>
+      <c r="C3" t="str">
+        <v>150</v>
+      </c>
+      <c r="D3" t="str">
+        <v>0.5</v>
+      </c>
+      <c r="E3" t="str">
+        <v>TRUE</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>91000</v>
+      </c>
+      <c r="B4" t="str">
+        <v>1</v>
+      </c>
+      <c r="C4" t="str">
+        <v>150</v>
+      </c>
+      <c r="D4" t="str">
+        <v>0.7</v>
+      </c>
+      <c r="E4" t="str">
+        <v>TRUE</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>91000</v>
+      </c>
+      <c r="B5" t="str">
+        <v>1-1/2</v>
+      </c>
+      <c r="C5" t="str">
+        <v>150</v>
+      </c>
+      <c r="D5" t="str">
+        <v>1.2</v>
+      </c>
+      <c r="E5" t="str">
+        <v>TRUE</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>91000</v>
+      </c>
+      <c r="B6" t="str">
+        <v>2</v>
+      </c>
+      <c r="C6" t="str">
+        <v>150</v>
+      </c>
+      <c r="D6" t="str">
+        <v>1.8</v>
+      </c>
+      <c r="E6" t="str">
+        <v>TRUE</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>92000</v>
+      </c>
+      <c r="B7" t="str">
+        <v>1/2</v>
+      </c>
+      <c r="C7" t="str">
+        <v>150</v>
+      </c>
+      <c r="D7" t="str">
+        <v>0.35</v>
+      </c>
+      <c r="E7" t="str">
+        <v>TRUE</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>92000</v>
+      </c>
+      <c r="B8" t="str">
+        <v>1</v>
+      </c>
+      <c r="C8" t="str">
+        <v>150</v>
+      </c>
+      <c r="D8" t="str">
+        <v>0.75</v>
+      </c>
+      <c r="E8" t="str">
+        <v>TRUE</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>92000</v>
+      </c>
+      <c r="B9" t="str">
+        <v>2</v>
+      </c>
+      <c r="C9" t="str">
+        <v>150</v>
+      </c>
+      <c r="D9" t="str">
+        <v>1.9</v>
+      </c>
+      <c r="E9" t="str">
+        <v>TRUE</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:E9"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>Series Number</v>
+      </c>
+      <c r="B1" t="str">
+        <v>Size</v>
+      </c>
+      <c r="C1" t="str">
+        <v>Rating</v>
+      </c>
+      <c r="D1" t="str">
+        <v>Weight (kg)</v>
+      </c>
+      <c r="E1" t="str">
+        <v>Active</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>92000</v>
+      </c>
+      <c r="B2" t="str">
+        <v>1/2</v>
+      </c>
+      <c r="C2" t="str">
+        <v>150</v>
+      </c>
+      <c r="D2" t="str">
+        <v>1.2</v>
+      </c>
+      <c r="E2" t="str">
+        <v>TRUE</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>92000</v>
+      </c>
+      <c r="B3" t="str">
+        <v>1</v>
+      </c>
+      <c r="C3" t="str">
+        <v>150</v>
+      </c>
+      <c r="D3" t="str">
+        <v>2.5</v>
+      </c>
+      <c r="E3" t="str">
+        <v>TRUE</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>92000</v>
+      </c>
+      <c r="B4" t="str">
+        <v>2</v>
+      </c>
+      <c r="C4" t="str">
+        <v>150</v>
+      </c>
+      <c r="D4" t="str">
+        <v>6.0</v>
+      </c>
+      <c r="E4" t="str">
+        <v>TRUE</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>93000</v>
+      </c>
+      <c r="B5" t="str">
+        <v>1/2</v>
+      </c>
+      <c r="C5" t="str">
+        <v>150</v>
+      </c>
+      <c r="D5" t="str">
+        <v>1.3</v>
+      </c>
+      <c r="E5" t="str">
+        <v>TRUE</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>93000</v>
+      </c>
+      <c r="B6" t="str">
+        <v>1</v>
+      </c>
+      <c r="C6" t="str">
+        <v>150</v>
+      </c>
+      <c r="D6" t="str">
+        <v>2.7</v>
+      </c>
+      <c r="E6" t="str">
+        <v>TRUE</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:E6"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>Series Number</v>
+      </c>
+      <c r="B1" t="str">
+        <v>Seal Type</v>
+      </c>
+      <c r="C1" t="str">
+        <v>Size</v>
+      </c>
+      <c r="D1" t="str">
+        <v>Rating</v>
+      </c>
+      <c r="E1" t="str">
+        <v>Fixed Price</v>
+      </c>
+      <c r="F1" t="str">
+        <v>Active</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>92000</v>
+      </c>
+      <c r="B2" t="str">
+        <v>Graphite</v>
+      </c>
+      <c r="C2" t="str">
+        <v>1/2</v>
+      </c>
+      <c r="D2" t="str">
+        <v>150</v>
+      </c>
+      <c r="E2" t="str">
+        <v>800</v>
+      </c>
+      <c r="F2" t="str">
+        <v>TRUE</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>92000</v>
+      </c>
+      <c r="B3" t="str">
+        <v>Graphite</v>
+      </c>
+      <c r="C3" t="str">
+        <v>1</v>
+      </c>
+      <c r="D3" t="str">
+        <v>150</v>
+      </c>
+      <c r="E3" t="str">
+        <v>1200</v>
+      </c>
+      <c r="F3" t="str">
+        <v>TRUE</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>92000</v>
+      </c>
+      <c r="B4" t="str">
+        <v>Graphite</v>
+      </c>
+      <c r="C4" t="str">
+        <v>2</v>
+      </c>
+      <c r="D4" t="str">
+        <v>150</v>
+      </c>
+      <c r="E4" t="str">
+        <v>1800</v>
+      </c>
+      <c r="F4" t="str">
+        <v>TRUE</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>92000</v>
+      </c>
+      <c r="B5" t="str">
+        <v>PTFE</v>
+      </c>
+      <c r="C5" t="str">
+        <v>1/2</v>
+      </c>
+      <c r="D5" t="str">
+        <v>150</v>
+      </c>
+      <c r="E5" t="str">
+        <v>900</v>
+      </c>
+      <c r="F5" t="str">
+        <v>TRUE</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>92000</v>
+      </c>
+      <c r="B6" t="str">
+        <v>PTFE</v>
+      </c>
+      <c r="C6" t="str">
+        <v>1</v>
+      </c>
+      <c r="D6" t="str">
+        <v>150</v>
+      </c>
+      <c r="E6" t="str">
+        <v>1300</v>
+      </c>
+      <c r="F6" t="str">
+        <v>TRUE</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>93000</v>
+      </c>
+      <c r="B7" t="str">
+        <v>Graphite</v>
+      </c>
+      <c r="C7" t="str">
+        <v>1/2</v>
+      </c>
+      <c r="D7" t="str">
+        <v>150</v>
+      </c>
+      <c r="E7" t="str">
+        <v>850</v>
+      </c>
+      <c r="F7" t="str">
+        <v>TRUE</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>93000</v>
+      </c>
+      <c r="B8" t="str">
+        <v>Graphite</v>
+      </c>
+      <c r="C8" t="str">
+        <v>1</v>
+      </c>
+      <c r="D8" t="str">
+        <v>150</v>
+      </c>
+      <c r="E8" t="str">
+        <v>1250</v>
+      </c>
+      <c r="F8" t="str">
+        <v>TRUE</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:F8"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>Series Number</v>
+      </c>
+      <c r="B1" t="str">
+        <v>Size</v>
+      </c>
+      <c r="C1" t="str">
+        <v>Rating</v>
+      </c>
+      <c r="D1" t="str">
+        <v>Material Name</v>
+      </c>
+      <c r="E1" t="str">
+        <v>Fixed Price</v>
+      </c>
+      <c r="F1" t="str">
+        <v>Active</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>91000</v>
+      </c>
+      <c r="B2" t="str">
+        <v>1/2</v>
+      </c>
+      <c r="C2" t="str">
+        <v>150</v>
+      </c>
+      <c r="D2" t="str">
+        <v>SS304 Stem</v>
+      </c>
+      <c r="E2" t="str">
+        <v>1200</v>
+      </c>
+      <c r="F2" t="str">
+        <v>TRUE</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>91000</v>
+      </c>
+      <c r="B3" t="str">
+        <v>1/2</v>
+      </c>
+      <c r="C3" t="str">
+        <v>150</v>
+      </c>
+      <c r="D3" t="str">
+        <v>SS316 Stem</v>
+      </c>
+      <c r="E3" t="str">
+        <v>1500</v>
+      </c>
+      <c r="F3" t="str">
+        <v>TRUE</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>91000</v>
+      </c>
+      <c r="B4" t="str">
+        <v>3/4</v>
+      </c>
+      <c r="C4" t="str">
+        <v>150</v>
+      </c>
+      <c r="D4" t="str">
+        <v>SS304 Stem</v>
+      </c>
+      <c r="E4" t="str">
+        <v>1600</v>
+      </c>
+      <c r="F4" t="str">
+        <v>TRUE</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>91000</v>
+      </c>
+      <c r="B5" t="str">
+        <v>3/4</v>
+      </c>
+      <c r="C5" t="str">
+        <v>150</v>
+      </c>
+      <c r="D5" t="str">
+        <v>SS316 Stem</v>
+      </c>
+      <c r="E5" t="str">
+        <v>2000</v>
+      </c>
+      <c r="F5" t="str">
+        <v>TRUE</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>91000</v>
+      </c>
+      <c r="B6" t="str">
+        <v>1</v>
+      </c>
+      <c r="C6" t="str">
+        <v>150</v>
+      </c>
+      <c r="D6" t="str">
+        <v>SS304 Stem</v>
+      </c>
+      <c r="E6" t="str">
+        <v>2000</v>
+      </c>
+      <c r="F6" t="str">
+        <v>TRUE</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>91000</v>
+      </c>
+      <c r="B7" t="str">
+        <v>1</v>
+      </c>
+      <c r="C7" t="str">
+        <v>150</v>
+      </c>
+      <c r="D7" t="str">
+        <v>SS316 Stem</v>
+      </c>
+      <c r="E7" t="str">
+        <v>2500</v>
+      </c>
+      <c r="F7" t="str">
+        <v>TRUE</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>91000</v>
+      </c>
+      <c r="B8" t="str">
+        <v>1-1/2</v>
+      </c>
+      <c r="C8" t="str">
+        <v>150</v>
+      </c>
+      <c r="D8" t="str">
+        <v>SS304 Stem</v>
+      </c>
+      <c r="E8" t="str">
+        <v>3000</v>
+      </c>
+      <c r="F8" t="str">
+        <v>TRUE</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>91000</v>
+      </c>
+      <c r="B9" t="str">
+        <v>2</v>
+      </c>
+      <c r="C9" t="str">
+        <v>150</v>
+      </c>
+      <c r="D9" t="str">
+        <v>SS304 Stem</v>
+      </c>
+      <c r="E9" t="str">
+        <v>4000</v>
+      </c>
+      <c r="F9" t="str">
+        <v>TRUE</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>92000</v>
+      </c>
+      <c r="B10" t="str">
+        <v>1/2</v>
+      </c>
+      <c r="C10" t="str">
+        <v>150</v>
+      </c>
+      <c r="D10" t="str">
+        <v>SS304 Stem</v>
+      </c>
+      <c r="E10" t="str">
+        <v>1300</v>
+      </c>
+      <c r="F10" t="str">
+        <v>TRUE</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>92000</v>
+      </c>
+      <c r="B11" t="str">
+        <v>1</v>
+      </c>
+      <c r="C11" t="str">
+        <v>150</v>
+      </c>
+      <c r="D11" t="str">
+        <v>SS304 Stem</v>
+      </c>
+      <c r="E11" t="str">
+        <v>2100</v>
+      </c>
+      <c r="F11" t="str">
+        <v>TRUE</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>92000</v>
+      </c>
+      <c r="B12" t="str">
+        <v>2</v>
+      </c>
+      <c r="C12" t="str">
+        <v>150</v>
+      </c>
+      <c r="D12" t="str">
+        <v>SS304 Stem</v>
+      </c>
+      <c r="E12" t="str">
+        <v>4500</v>
+      </c>
+      <c r="F12" t="str">
+        <v>TRUE</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:F12"/>
   </ignoredErrors>
 </worksheet>
 </file>